--- a/Inequação restrição janela - avaliação.xlsx
+++ b/Inequação restrição janela - avaliação.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDMILSON\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_EDMILSON DOMINGUES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDMILSON\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743135A4-51B6-4014-8074-0402633F128B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F6BC3E-C2DD-49A1-B6C7-8C621F9FC651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5ADA5AD7-11BF-4CE7-8082-069D38B7CDE9}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5ADA5AD7-11BF-4CE7-8082-069D38B7CDE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A11:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,17 +419,17 @@
         <v>2</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L11">
         <v>2</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <f>B11*$J$11+C11*$K$11+D11*$L$11+$M$11</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
       </c>
       <c r="O12">
         <f t="shared" ref="O12:O18" si="0">B12*$J$11+C12*$K$11+D12*$L$11+$M$11</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -465,7 +465,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -483,7 +483,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
       <c r="N15"/>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
@@ -550,7 +550,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">

--- a/Inequação restrição janela - avaliação.xlsx
+++ b/Inequação restrição janela - avaliação.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDMILSON\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilson1\Documents\UFSC\UFSC - curso de Sistemas de Informação 2019.2\Fase 8\TCC_Edmilson-Domingues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F6BC3E-C2DD-49A1-B6C7-8C621F9FC651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B915A564-56C6-487E-9100-50026B8054D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5ADA5AD7-11BF-4CE7-8082-069D38B7CDE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5ADA5AD7-11BF-4CE7-8082-069D38B7CDE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,25 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,8 +47,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,8 +75,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -72,14 +90,155 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,110 +553,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1EB643-FF48-4A6C-8B27-FDA5C946037F}">
-  <dimension ref="A11:Z23"/>
+  <dimension ref="A10:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>-2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>B11*$G$11+C11*$H$11+D11*$I$11+$J$11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0</v>
+      </c>
+      <c r="T11" s="20">
+        <f>Q11*$G$11+R11*$H$11+S11*$I$11+$J$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L18" si="0">B12*$G$11+C12*$H$11+D12*$I$11+$J$11</f>
         <v>2</v>
       </c>
-      <c r="K11">
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>1</v>
+      </c>
+      <c r="T12" s="21">
+        <f t="shared" ref="T12:T18" si="1">Q12*$G$11+R12*$H$11+S12*$I$11+$J$11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f>B11*$J$11+C11*$K$11+D11*$L$11+$M$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ref="O12:O18" si="0">B12*$J$11+C12*$K$11+D12*$L$11+$M$11</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
+      <c r="Q13" s="10">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>1</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="21">
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <v>1</v>
+      </c>
+      <c r="S14" s="12">
+        <v>1</v>
+      </c>
+      <c r="T14" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
         <v>0</v>
       </c>
       <c r="F15"/>
@@ -506,37 +735,42 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="L15"/>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="M15"/>
       <c r="N15"/>
-      <c r="O15">
-        <f t="shared" si="0"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15" s="10">
+        <v>1</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="21">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="2"/>
@@ -545,57 +779,90 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2">
+      <c r="L16" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="O18">
+      <c r="P16" s="19"/>
+      <c r="Q16" s="23">
+        <v>1</v>
+      </c>
+      <c r="R16" s="24">
+        <v>0</v>
+      </c>
+      <c r="S16" s="25">
+        <v>1</v>
+      </c>
+      <c r="T16" s="26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>1</v>
+      </c>
+      <c r="R17" s="11">
+        <v>1</v>
+      </c>
+      <c r="S17" s="12">
+        <v>0</v>
+      </c>
+      <c r="T17" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
+        <v>1</v>
+      </c>
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
-        <v>0</v>
+      <c r="Q18" s="16">
+        <v>1</v>
+      </c>
+      <c r="R18" s="17">
+        <v>1</v>
+      </c>
+      <c r="S18" s="18">
+        <v>1</v>
+      </c>
+      <c r="T18" s="22">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
